--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardo/repos/bracket-creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CD9E2E-04E5-C745-8DDF-95EE90982BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752E5118-0491-154D-B871-7480B1817848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Tree" sheetId="5" r:id="rId3"/>
     <sheet name="Pool Matches" sheetId="6" r:id="rId4"/>
     <sheet name="Elimination Matches" sheetId="7" r:id="rId5"/>
+    <sheet name="Names to Print" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -112,6 +113,20 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -196,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -209,6 +224,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -221,6 +242,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -1592,13 +1616,13 @@
   <sheetData>
     <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
@@ -1711,23 +1735,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1735,4 +1759,24 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA952CF-7580-BA4A-BFF2-63054D7F5497}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="114" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="161.1640625" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardo/repos/bracket-creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752E5118-0491-154D-B871-7480B1817848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E328B686-C409-6146-B04C-6C5C8B7D05B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,14 +119,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24"/>
+      <b/>
+      <sz val="72"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="72"/>
+      <b/>
+      <sz val="28"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -224,9 +226,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -242,6 +241,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1616,13 +1618,13 @@
   <sheetData>
     <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
@@ -1735,23 +1737,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1763,20 +1765,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA952CF-7580-BA4A-BFF2-63054D7F5497}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="114" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="115" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="161.1640625" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="21.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="170.6640625" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardo/repos/bracket-creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E328B686-C409-6146-B04C-6C5C8B7D05B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032F262B-675A-DB45-8FD2-8AB8F864E70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -229,6 +229,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -241,12 +247,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1618,13 +1618,13 @@
   <sheetData>
     <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
@@ -1678,14 +1678,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4065E12-1BC4-BF48-9DCD-AFB9407081DC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1737,23 +1736,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1770,14 +1769,14 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="115" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="170.6640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="170.6640625" style="9" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardo/repos/bracket-creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032F262B-675A-DB45-8FD2-8AB8F864E70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1039242-DB92-D54F-AA83-DB5D112C3583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Pool Draw" sheetId="2" r:id="rId2"/>
-    <sheet name="Tree" sheetId="5" r:id="rId3"/>
-    <sheet name="Pool Matches" sheetId="6" r:id="rId4"/>
-    <sheet name="Elimination Matches" sheetId="7" r:id="rId5"/>
-    <sheet name="Names to Print" sheetId="8" r:id="rId6"/>
+    <sheet name="Pool Matches" sheetId="6" r:id="rId3"/>
+    <sheet name="Elimination Matches" sheetId="7" r:id="rId4"/>
+    <sheet name="Names to Print" sheetId="8" r:id="rId5"/>
+    <sheet name="Tree" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Tree!$A$1:$M$65</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1595,10 +1598,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H10"/>
+  <dimension ref="A2:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1638,31 +1641,28 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
+    <row r="5" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+    </row>
     <row r="6" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1675,23 +1675,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4065E12-1BC4-BF48-9DCD-AFB9407081DC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F663BF-AB57-994A-845A-DBCD1B560412}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1715,7 +1698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D4E4C4-15C1-724B-94C9-DD9C94F4D3CF}">
   <dimension ref="A1:O1"/>
   <sheetViews>
@@ -1762,7 +1745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA952CF-7580-BA4A-BFF2-63054D7F5497}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1784,4 +1767,26 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4065E12-1BC4-BF48-9DCD-AFB9407081DC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardo/repos/bracket-creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1039242-DB92-D54F-AA83-DB5D112C3583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05859DC-0DAA-6046-9387-20638838A236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Pool Draw" sheetId="2" r:id="rId2"/>
-    <sheet name="Pool Matches" sheetId="6" r:id="rId3"/>
-    <sheet name="Elimination Matches" sheetId="7" r:id="rId4"/>
-    <sheet name="Names to Print" sheetId="8" r:id="rId5"/>
-    <sheet name="Tree" sheetId="5" r:id="rId6"/>
+    <sheet name="Time Estimator" sheetId="9" r:id="rId2"/>
+    <sheet name="Pool Draw" sheetId="2" r:id="rId3"/>
+    <sheet name="Pool Matches" sheetId="6" r:id="rId4"/>
+    <sheet name="Elimination Matches" sheetId="7" r:id="rId5"/>
+    <sheet name="Names to Print" sheetId="8" r:id="rId6"/>
+    <sheet name="Tree" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Tree!$A$1:$M$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Tree!$A$1:$M$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,18 +45,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Elimination Round 1</t>
   </si>
   <si>
     <t>Tournament Pools</t>
   </si>
+  <si>
+    <t>Number of pools</t>
+  </si>
+  <si>
+    <t>Team size</t>
+  </si>
+  <si>
+    <t>Matches per pool</t>
+  </si>
+  <si>
+    <t>Time per match</t>
+  </si>
+  <si>
+    <t>Total time for matches</t>
+  </si>
+  <si>
+    <t>Padding time for rotation</t>
+  </si>
+  <si>
+    <t>Time for breaks</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Number of Elimination Matches</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -216,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -237,6 +268,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1594,6 +1637,218 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176316AF-4790-BF4E-A6AB-8C7837CD465B}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="51" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" s="11">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E2" s="12">
+        <f>(A2*B2*C2*D2)</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F2" s="12">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="G2" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H2" s="12">
+        <f>E2+(A2*C2*F2)+G2</f>
+        <v>6.041666666666666E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.15">
+      <c r="A3" s="11">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E3" s="12">
+        <f>(A3*B3*C3*D3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="G3" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H3" s="12">
+        <f>E3+(A3*C3*F3)+G3</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E8" s="12">
+        <f>(A8*B8*D8)</f>
+        <v>4.1666666666666671E-2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="G8" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H8" s="12">
+        <f>E8+(A8*F8)+G8</f>
+        <v>6.4236111111111119E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1621,13 +1876,13 @@
   <sheetData>
     <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
@@ -1674,7 +1929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F663BF-AB57-994A-845A-DBCD1B560412}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1698,7 +1953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D4E4C4-15C1-724B-94C9-DD9C94F4D3CF}">
   <dimension ref="A1:O1"/>
   <sheetViews>
@@ -1719,23 +1974,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1745,7 +2000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA952CF-7580-BA4A-BFF2-63054D7F5497}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1769,14 +2024,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4065E12-1BC4-BF48-9DCD-AFB9407081DC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardo/repos/bracket-creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05859DC-0DAA-6046-9387-20638838A236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3D0668-294F-6947-8681-E89465840FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26060" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -2031,13 +2031,14 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
